--- a/data/trans_dic/P34D_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34D_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,44; 28,1</t>
+          <t>16,37; 28,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 9,6</t>
+          <t>4,24; 9,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 17,2</t>
+          <t>10,67; 17,61</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,2; 20,69</t>
+          <t>11,09; 20,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,52</t>
+          <t>1,78; 5,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 12,1</t>
+          <t>6,94; 11,95</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,61; 31,92</t>
+          <t>21,42; 31,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 13,63</t>
+          <t>7,81; 14,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,85; 20,97</t>
+          <t>15,15; 21,18</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,06; 29,53</t>
+          <t>17,59; 29,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,94; 16,31</t>
+          <t>8,91; 16,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 20,58</t>
+          <t>13,67; 20,43</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,92; 23,27</t>
+          <t>12,14; 24,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 9,88</t>
+          <t>3,75; 9,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 14,87</t>
+          <t>8,02; 14,18</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,7; 26,45</t>
+          <t>15,78; 26,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,89</t>
+          <t>4,77; 10,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,17; 17,3</t>
+          <t>11,27; 17,29</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,09; 20,16</t>
+          <t>13,33; 20,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,62; 8,46</t>
+          <t>3,77; 8,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,28; 13,24</t>
+          <t>8,08; 13,01</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,8; 21,43</t>
+          <t>13,98; 21,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,89</t>
+          <t>3,14; 7,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,32</t>
+          <t>9,45; 13,43</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,49; 20,93</t>
+          <t>17,3; 20,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,64; 7,62</t>
+          <t>5,67; 7,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,47; 13,4</t>
+          <t>11,55; 13,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34D_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P34D_2023-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>15,27%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,37; 28,21</t>
+          <t>17,62; 31,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 9,59</t>
+          <t>4,38; 10,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 17,61</t>
+          <t>11,65; 19,88</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,9%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,09; 20,26</t>
+          <t>11,92; 21,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,42</t>
+          <t>1,76; 5,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 11,95</t>
+          <t>7,42; 12,96</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>18,6%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,42; 31,98</t>
+          <t>22,23; 33,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,81; 14,16</t>
+          <t>7,89; 14,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,15; 21,18</t>
+          <t>15,63; 22,0</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>14,97%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 29,98</t>
+          <t>17,08; 29,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,91; 16,45</t>
+          <t>5,76; 14,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,67; 20,43</t>
+          <t>10,76; 18,73</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>10,8%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,14; 24,46</t>
+          <t>11,9; 23,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,75; 9,69</t>
+          <t>3,67; 9,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,02; 14,18</t>
+          <t>7,93; 13,82</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>14,55%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,78; 26,41</t>
+          <t>16,09; 27,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,73</t>
+          <t>4,74; 10,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,29</t>
+          <t>11,56; 17,7</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,33; 20,49</t>
+          <t>13,32; 20,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,77; 8,4</t>
+          <t>2,22; 7,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 13,01</t>
+          <t>6,34; 12,72</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>9,68%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,98; 21,44</t>
+          <t>5,98; 19,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,67</t>
+          <t>3,01; 7,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,45; 13,43</t>
+          <t>6,2; 12,05</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,14%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,3; 20,9</t>
+          <t>14,09; 20,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,67; 7,58</t>
+          <t>4,96; 7,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,55; 13,45</t>
+          <t>10,65; 13,43</t>
         </is>
       </c>
     </row>
